--- a/hello.xlsx
+++ b/hello.xlsx
@@ -14,21 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="3">
   <si>
-    <t>car body</t>
+    <t>hello</t>
   </si>
   <si>
-    <t>windshield</t>
+    <t xml:space="preserve"> workd</t>
   </si>
   <si>
-    <t>motor</t>
-  </si>
-  <si>
-    <t>door</t>
-  </si>
-  <si>
-    <t>rear view mirror</t>
+    <t xml:space="preserve"> this</t>
   </si>
 </sst>
 </file>
@@ -384,21 +378,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -409,41 +402,32 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
